--- a/academycity/data/avic/datasets/excel/eli/1965.xlsx
+++ b/academycity/data/avic/datasets/excel/eli/1965.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GDP " sheetId="1" state="visible" r:id="rId2"/>
@@ -810,19 +810,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="#,##0"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="#,##0"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * \-??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -846,94 +845,11 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF993300"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="15"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="13"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -941,43 +857,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF993300"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1024,7 +903,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1033,140 +912,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAE3F3"/>
-        <bgColor rgb="FFDEEBF7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBE5D6"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDEDED"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEBF7"/>
-        <bgColor rgb="FFDAE3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0D9"/>
-        <bgColor rgb="FFEDEDED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FF9DC3E6"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDBDBDB"/>
-        <bgColor rgb="FFDAE3F3"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FFB4C7E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FAADC"/>
-        <bgColor rgb="FFA1B8E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B183"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9C9C9"/>
-        <bgColor rgb="FFB4C7E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9DC3E6"/>
-        <bgColor rgb="FFA1B8E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FFC5E0B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FF5B9BD5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFA7D00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFB2B2B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFD966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FF8FAADC"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF70AD47"/>
       </patternFill>
     </fill>
     <fill>
@@ -1177,66 +948,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFF8CBAD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFEDEDED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC5E0B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFF8CBAD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFE699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF9C0006"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFD966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFA9D18E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1244,115 +961,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF4472C4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFA1B8E1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF8FAADC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4472C4"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF4472C4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1376,146 +986,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="15" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="21" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="22" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="23" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="24" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="25" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="26" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="27" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="22" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="28" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="29" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="30" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="31" borderId="7" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="27" borderId="8" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1523,35 +1004,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="30" borderId="0" xfId="57" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1559,281 +1036,237 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="32" borderId="0" xfId="48" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="22" fillId="25" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="25" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="20% - Accent1 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="20% - Accent2 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="20% - Accent3 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="20% - Accent4 2" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="20% - Accent5 2" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="20% - Accent6 2" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent1 2" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent2 2" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent3 2" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent4 2" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent5 2" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent6 2" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent1 2" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent2 2" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent3 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent4 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent5 2" xfId="36" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent6 2" xfId="37" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent1 2" xfId="38" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent2 2" xfId="39" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent3 2" xfId="40" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent4 2" xfId="41" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent5 2" xfId="42" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent6 2" xfId="43" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad 2" xfId="44" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Calculation 2" xfId="45" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Check Cell 2" xfId="46" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Comma 2" xfId="47" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Comma 3" xfId="48" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Explanatory Text 2" xfId="49" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good 2" xfId="50" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1 2" xfId="51" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2 2" xfId="52" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 3 2" xfId="53" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 4 2" xfId="54" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Input 2" xfId="55" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Linked Cell 2" xfId="56" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral 2" xfId="57" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="58" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note 2" xfId="59" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Output 2" xfId="60" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Title 2" xfId="61" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Total 2" xfId="62" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning Text 2" xfId="63" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FFC5E0B4"/>
+      <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFDAE3F3"/>
-      <rgbColor rgb="FFA9D18E"/>
-      <rgbColor rgb="FF9C0006"/>
-      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF9C6500"/>
-      <rgbColor rgb="FFEDEDED"/>
-      <rgbColor rgb="FF70AD47"/>
-      <rgbColor rgb="FFC9C9C9"/>
-      <rgbColor rgb="FF7F7F7F"/>
-      <rgbColor rgb="FF8FAADC"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0070C0"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFF8CBAD"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFDEEBF7"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFED7D31"/>
-      <rgbColor rgb="FF0070C0"/>
-      <rgbColor rgb="FFBDD7EE"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFBE5D6"/>
-      <rgbColor rgb="FFFFD966"/>
-      <rgbColor rgb="FFB4C7E7"/>
-      <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFA1B8E1"/>
-      <rgbColor rgb="FFE2F0D9"/>
-      <rgbColor rgb="FFC6EFCE"/>
-      <rgbColor rgb="FFFFEB9C"/>
-      <rgbColor rgb="FF9DC3E6"/>
-      <rgbColor rgb="FFF4B183"/>
-      <rgbColor rgb="FFB2B2B2"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF4472C4"/>
-      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF8001"/>
-      <rgbColor rgb="FFFA7D00"/>
-      <rgbColor rgb="FF44546A"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF70AD47"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FFFFE699"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FFFFC7CE"/>
-      <rgbColor rgb="FF3F3F76"/>
-      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1847,7 +1280,7 @@
   <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I31:J31 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5447,7 +4880,7 @@
   <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I31:J31 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8301,7 +7734,7 @@
   <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I31:J31 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9324,7 +8757,7 @@
   <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I31:J31 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10308,12 +9741,12 @@
   <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I31:J31 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
@@ -11672,7 +11105,7 @@
   <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I31:J31 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13043,21 +12476,22 @@
   </sheetPr>
   <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F131" activeCellId="1" sqref="I31:J31 F131"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="6" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
         <v>137</v>
       </c>
@@ -13074,41 +12508,41 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="48" t="n">
-        <v>45.925</v>
+        <v>20.4</v>
       </c>
       <c r="C2" s="48" t="n">
-        <v>45.98281</v>
+        <v>20.36605</v>
       </c>
       <c r="D2" s="48" t="n">
-        <v>45.85015</v>
+        <v>20.41625</v>
       </c>
       <c r="E2" s="48" t="n">
-        <v>45.9321</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20.35705</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="49" t="n">
-        <v>20.4</v>
+        <v>45.925</v>
       </c>
       <c r="C3" s="49" t="n">
-        <v>20.36605</v>
+        <v>45.98281</v>
       </c>
       <c r="D3" s="49" t="n">
-        <v>20.41625</v>
+        <v>45.85015</v>
       </c>
       <c r="E3" s="49" t="n">
-        <v>20.35705</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45.9321</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -13125,7 +12559,7 @@
         <v>51.631</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>145</v>
       </c>
@@ -13142,7 +12576,7 @@
         <v>36.599</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>146</v>
       </c>
@@ -13159,7 +12593,7 @@
         <v>48.575</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
@@ -13176,7 +12610,7 @@
         <v>48.622</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>147</v>
       </c>
@@ -13193,7 +12627,7 @@
         <v>22.909</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>148</v>
       </c>
@@ -13210,7 +12644,7 @@
         <v>19.6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>149</v>
       </c>
@@ -13227,7 +12661,7 @@
         <v>17.9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>19</v>
       </c>
@@ -13244,7 +12678,7 @@
         <v>48.28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>150</v>
       </c>
@@ -13261,7 +12695,7 @@
         <v>16.4</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>151</v>
       </c>
@@ -13278,7 +12712,7 @@
         <v>46.075</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>152</v>
       </c>
@@ -13295,7 +12729,7 @@
         <v>43.177</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>23</v>
       </c>
@@ -13312,7 +12746,7 @@
         <v>46.145</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>153</v>
       </c>
@@ -13329,7 +12763,7 @@
         <v>39.453</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>154</v>
       </c>
@@ -13346,7 +12780,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>26</v>
       </c>
@@ -13363,7 +12797,7 @@
         <v>47.332</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>27</v>
       </c>
@@ -13380,7 +12814,7 @@
         <v>48.212</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>251</v>
       </c>
@@ -13397,7 +12831,7 @@
         <v>45.082</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>156</v>
       </c>
@@ -13414,7 +12848,7 @@
         <v>43.869</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>30</v>
       </c>
@@ -13431,7 +12865,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>245</v>
       </c>
@@ -13448,7 +12882,7 @@
         <v>43.088</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>158</v>
       </c>
@@ -13465,7 +12899,7 @@
         <v>45.55</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>159</v>
       </c>
@@ -13482,7 +12916,7 @@
         <v>32.614</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>160</v>
       </c>
@@ -13499,7 +12933,7 @@
         <v>37.88</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>161</v>
       </c>
@@ -13516,7 +12950,7 @@
         <v>42.827</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>236</v>
       </c>
@@ -13533,7 +12967,7 @@
         <v>46.903</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>252</v>
       </c>
@@ -13550,7 +12984,7 @@
         <v>43.485</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>38</v>
       </c>
@@ -13567,7 +13001,7 @@
         <v>40.441</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>164</v>
       </c>
@@ -13584,7 +13018,7 @@
         <v>52.316</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>40</v>
       </c>
@@ -13601,7 +13035,7 @@
         <v>34.308</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>165</v>
       </c>
@@ -13618,7 +13052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>238</v>
       </c>
@@ -13635,7 +13069,7 @@
         <v>47.029</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>167</v>
       </c>
@@ -13652,7 +13086,7 @@
         <v>43.052</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>168</v>
       </c>
@@ -13669,7 +13103,7 @@
         <v>44.167</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>253</v>
       </c>
@@ -13686,7 +13120,7 @@
         <v>45.443</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>169</v>
       </c>
@@ -13703,7 +13137,7 @@
         <v>47.741</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>170</v>
       </c>
@@ -13720,7 +13154,7 @@
         <v>17.1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>48</v>
       </c>
@@ -13737,7 +13171,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>49</v>
       </c>
@@ -13754,7 +13188,7 @@
         <v>35.262</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>239</v>
       </c>
@@ -13771,7 +13205,7 @@
         <v>17.4</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>51</v>
       </c>
@@ -13788,7 +13222,7 @@
         <v>47.634</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>172</v>
       </c>
@@ -13805,7 +13239,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>53</v>
       </c>
@@ -13822,7 +13256,7 @@
         <v>46.189</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>173</v>
       </c>
@@ -13839,7 +13273,7 @@
         <v>45.296</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>174</v>
       </c>
@@ -13854,7 +13288,7 @@
         <v>41.868</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>56</v>
       </c>
@@ -13869,7 +13303,7 @@
         <v>38.721</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>175</v>
       </c>
@@ -13886,7 +13320,7 @@
         <v>42.375</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>58</v>
       </c>
@@ -13903,7 +13337,7 @@
         <v>48.837</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>59</v>
       </c>
@@ -13920,7 +13354,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>177</v>
       </c>
@@ -13937,7 +13371,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>178</v>
       </c>
@@ -13954,7 +13388,7 @@
         <v>40.587</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>179</v>
       </c>
@@ -13971,7 +13405,7 @@
         <v>42.69</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>180</v>
       </c>
@@ -13988,7 +13422,7 @@
         <v>44.898</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>181</v>
       </c>
@@ -14005,7 +13439,7 @@
         <v>45.453</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>182</v>
       </c>
@@ -14022,7 +13456,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>183</v>
       </c>
@@ -14039,7 +13473,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>184</v>
       </c>
@@ -14056,7 +13490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>185</v>
       </c>
@@ -14073,7 +13507,7 @@
         <v>39.841</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>186</v>
       </c>
@@ -14090,7 +13524,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>187</v>
       </c>
@@ -14105,7 +13539,7 @@
         <v>53.294</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>71</v>
       </c>
@@ -14122,7 +13556,7 @@
         <v>50.748</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>254</v>
       </c>
@@ -14139,7 +13573,7 @@
         <v>35.119</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>189</v>
       </c>
@@ -14156,7 +13590,7 @@
         <v>42.854</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>190</v>
       </c>
@@ -14173,7 +13607,7 @@
         <v>35.496</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>75</v>
       </c>
@@ -14190,7 +13624,7 @@
         <v>43.46</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>76</v>
       </c>
@@ -14207,7 +13641,7 @@
         <v>48.666</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>191</v>
       </c>
@@ -14224,7 +13658,7 @@
         <v>50.978</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>78</v>
       </c>
@@ -14241,7 +13675,7 @@
         <v>48.217</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>79</v>
       </c>
@@ -14258,7 +13692,7 @@
         <v>52.123</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>192</v>
       </c>
@@ -14275,7 +13709,7 @@
         <v>38.809</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>81</v>
       </c>
@@ -14292,7 +13726,7 @@
         <v>50.143</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>193</v>
       </c>
@@ -14309,7 +13743,7 @@
         <v>47.75</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>194</v>
       </c>
@@ -14326,7 +13760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>195</v>
       </c>
@@ -14343,7 +13777,7 @@
         <v>44.232</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>196</v>
       </c>
@@ -14360,7 +13794,7 @@
         <v>46.948</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>197</v>
       </c>
@@ -14377,7 +13811,7 @@
         <v>47.602</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>87</v>
       </c>
@@ -14394,7 +13828,7 @@
         <v>46.927</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>255</v>
       </c>
@@ -14411,7 +13845,7 @@
         <v>41.826</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>199</v>
       </c>
@@ -14428,7 +13862,7 @@
         <v>43.393</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>200</v>
       </c>
@@ -14445,7 +13879,7 @@
         <v>19.9</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>201</v>
       </c>
@@ -14462,7 +13896,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>92</v>
       </c>
@@ -14479,7 +13913,7 @@
         <v>47.541</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>93</v>
       </c>
@@ -14496,7 +13930,7 @@
         <v>58.037</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>94</v>
       </c>
@@ -14513,7 +13947,7 @@
         <v>45.94</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>202</v>
       </c>
@@ -14530,7 +13964,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>96</v>
       </c>
@@ -14547,7 +13981,7 @@
         <v>48.855</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>97</v>
       </c>
@@ -14564,7 +13998,7 @@
         <v>44.049</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>98</v>
       </c>
@@ -14581,7 +14015,7 @@
         <v>39.963</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>99</v>
       </c>
@@ -14598,7 +14032,7 @@
         <v>41.743</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>100</v>
       </c>
@@ -14615,7 +14049,7 @@
         <v>40.423</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>203</v>
       </c>
@@ -14632,7 +14066,7 @@
         <v>45.014</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>102</v>
       </c>
@@ -14649,7 +14083,7 @@
         <v>41.652</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>204</v>
       </c>
@@ -14666,7 +14100,7 @@
         <v>17.4</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>205</v>
       </c>
@@ -14683,7 +14117,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>206</v>
       </c>
@@ -14700,7 +14134,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>106</v>
       </c>
@@ -14717,7 +14151,7 @@
         <v>49.355</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>207</v>
       </c>
@@ -14734,7 +14168,7 @@
         <v>47.343</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>208</v>
       </c>
@@ -14751,7 +14185,7 @@
         <v>50.214</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>109</v>
       </c>
@@ -14768,7 +14202,7 @@
         <v>47.695</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>209</v>
       </c>
@@ -14785,7 +14219,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>210</v>
       </c>
@@ -14802,7 +14236,7 @@
         <v>47.185</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>211</v>
       </c>
@@ -14819,7 +14253,7 @@
         <v>39.871</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>212</v>
       </c>
@@ -14836,7 +14270,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>114</v>
       </c>
@@ -14853,7 +14287,7 @@
         <v>33.925</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>213</v>
       </c>
@@ -14870,7 +14304,7 @@
         <v>47.047</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>214</v>
       </c>
@@ -14887,7 +14321,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>215</v>
       </c>
@@ -14904,7 +14338,7 @@
         <v>19.1</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>240</v>
       </c>
@@ -14921,7 +14355,7 @@
         <v>46.729</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>217</v>
       </c>
@@ -14938,7 +14372,7 @@
         <v>48.805</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>218</v>
       </c>
@@ -14955,7 +14389,7 @@
         <v>41.708</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>121</v>
       </c>
@@ -14972,7 +14406,7 @@
         <v>47.93</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>219</v>
       </c>
@@ -14989,7 +14423,7 @@
         <v>31.882</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>220</v>
       </c>
@@ -15006,7 +14440,7 @@
         <v>44.507</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>221</v>
       </c>
@@ -15023,7 +14457,7 @@
         <v>42.132</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>222</v>
       </c>
@@ -15040,7 +14474,7 @@
         <v>48.661</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>223</v>
       </c>
@@ -15057,7 +14491,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>224</v>
       </c>
@@ -15074,7 +14508,7 @@
         <v>19.4</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>128</v>
       </c>
@@ -15091,7 +14525,7 @@
         <v>21.14</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>129</v>
       </c>
@@ -15108,7 +14542,7 @@
         <v>41.532</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>256</v>
       </c>
@@ -15125,7 +14559,7 @@
         <v>55.089</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>227</v>
       </c>
@@ -15142,7 +14576,7 @@
         <v>49.68</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>132</v>
       </c>
@@ -15159,7 +14593,7 @@
         <v>47.643</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>228</v>
       </c>
@@ -15170,7 +14604,7 @@
       <c r="D125" s="34"/>
       <c r="E125" s="9"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>134</v>
       </c>
@@ -15181,7 +14615,7 @@
       <c r="D126" s="34"/>
       <c r="E126" s="9"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>241</v>
       </c>
@@ -15192,7 +14626,7 @@
       <c r="D127" s="34"/>
       <c r="E127" s="9"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>242</v>
       </c>
@@ -15221,8 +14655,8 @@
   </sheetPr>
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31:J31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
